--- a/data/trans_dic/P79_n_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P79_n_R2-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007481114703647549</v>
+        <v>0.00740996955621664</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.006161896841181195</v>
+        <v>0.005891423841738527</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008487950731444977</v>
+        <v>0.008700002336392062</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03016280312776037</v>
+        <v>0.02892161057717737</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02634267862876146</v>
+        <v>0.02574815555831069</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02366722895730905</v>
+        <v>0.02296590934691737</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.01949687544446392</v>
+        <v>0.01949687544446391</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.01664289810418117</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009611580543799543</v>
+        <v>0.008544978372046279</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007213826439584928</v>
+        <v>0.008262752612141261</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0110171571447752</v>
+        <v>0.01060434738395548</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03538547349570789</v>
+        <v>0.03529571752641791</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03095767463719375</v>
+        <v>0.03155247471522569</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02768277646238482</v>
+        <v>0.0303543244271435</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.06238272923139387</v>
+        <v>0.06238272923139386</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.02335563274231224</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04262668967267743</v>
+        <v>0.04016626676620667</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009749325163306075</v>
+        <v>0.008620814051012948</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03651315487918553</v>
+        <v>0.03501463641066058</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08692256854362274</v>
+        <v>0.08616524375711269</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0431850836500316</v>
+        <v>0.04475956482177528</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07109692975607712</v>
+        <v>0.06941652465520529</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.04685106570391005</v>
+        <v>0.04685106570391004</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02534184589440246</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.03755679478593398</v>
+        <v>0.037556794785934</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03423864465094306</v>
+        <v>0.03438580895072235</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01664143539884896</v>
+        <v>0.01717903225031573</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0296594287744023</v>
+        <v>0.02954871957418311</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06324548588367192</v>
+        <v>0.06288407425384147</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03719252741372501</v>
+        <v>0.03619788753121565</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04799875453445367</v>
+        <v>0.04763025087302965</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.0582454932108145</v>
+        <v>0.05824549321081451</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.07483273479160892</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.06809777793745661</v>
+        <v>0.0680977779374566</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03993504098749081</v>
+        <v>0.04154329935077644</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05975385199390252</v>
+        <v>0.05875006067888826</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05644046457506586</v>
+        <v>0.05551177813839108</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08162442276703445</v>
+        <v>0.08405714457772555</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09481269398322671</v>
+        <v>0.09478327273919901</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08305725773673134</v>
+        <v>0.08213229896808373</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.03112089820340978</v>
+        <v>0.03112089820340979</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.05569871536310963</v>
+        <v>0.05569871536310964</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.05030759828565907</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01006893718673492</v>
+        <v>0.007814450884632729</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04045641784808946</v>
+        <v>0.04188026506847574</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03797775964387091</v>
+        <v>0.03810581121634286</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08214355946380844</v>
+        <v>0.07668777095726169</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07450957268159199</v>
+        <v>0.07427746607263432</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06641126751015552</v>
+        <v>0.06864931706190398</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03457374337315103</v>
+        <v>0.0342295467395299</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0351337450127286</v>
+        <v>0.03521461615267173</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03668311161397913</v>
+        <v>0.0365041358435128</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0487941427963773</v>
+        <v>0.04896238721240936</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04788333883933724</v>
+        <v>0.04735245172392278</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04610911714080661</v>
+        <v>0.04598048892699128</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4119</v>
+        <v>4080</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3010</v>
+        <v>2877</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8819</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16608</v>
+        <v>15925</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12866</v>
+        <v>12576</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24591</v>
+        <v>23862</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4644</v>
+        <v>4129</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3052</v>
+        <v>3496</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9985</v>
+        <v>9611</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17099</v>
+        <v>17055</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13100</v>
+        <v>13351</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25090</v>
+        <v>27512</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20103</v>
+        <v>18943</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1828</v>
+        <v>1616</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24066</v>
+        <v>23078</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>40994</v>
+        <v>40637</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8097</v>
+        <v>8392</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>46861</v>
+        <v>45753</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38753</v>
+        <v>38919</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14332</v>
+        <v>14795</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>59113</v>
+        <v>58892</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>71584</v>
+        <v>71175</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>32031</v>
+        <v>31174</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>95664</v>
+        <v>94930</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>22682</v>
+        <v>23595</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>49646</v>
+        <v>48812</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>78950</v>
+        <v>77651</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>46360</v>
+        <v>47741</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>78775</v>
+        <v>78751</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>116182</v>
+        <v>114888</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2389</v>
+        <v>1854</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>34157</v>
+        <v>35359</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>41073</v>
+        <v>41212</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19487</v>
+        <v>18192</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>62907</v>
+        <v>62711</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>71824</v>
+        <v>74245</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>119019</v>
+        <v>117834</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>127725</v>
+        <v>128019</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>259638</v>
+        <v>258371</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>167973</v>
+        <v>168552</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>174075</v>
+        <v>172145</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>326354</v>
+        <v>325444</v>
       </c>
     </row>
     <row r="32">
